--- a/purchase_data.xlsx
+++ b/purchase_data.xlsx
@@ -2,20 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="18940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FC2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FC1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MSC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FC2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FC1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MSC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,7 +52,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -418,13 +415,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -461,6 +458,181 @@
         <is>
           <t>total_cost</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tumkur1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>w2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>efd,gdg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sarjapura</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cds,kj</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>K.R Pete</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dsfsg,mvhnvh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>466000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sarjapura</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pramod,devaraeperigi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>K.R Pete</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6565</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hfg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>295425</v>
       </c>
     </row>
   </sheetData>
@@ -474,13 +646,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -522,160 +694,28 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>er</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-08-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>e,maddir</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-08-24</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tumkur</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>w2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>efd,gdg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-08-24</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sarjapura</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>cds,kj</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-08-24</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>68</v>
+          <t>2024-09-06</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -689,13 +729,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -731,6 +771,43 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>total_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>e,mandya</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -745,189 +822,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>market</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>lot_no</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>kgs_purchased</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>price_per_kg</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>farmer_name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>date_of_purchase</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>total_cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>er</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>market</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>lot_no</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>kgs_purchased</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>price_per_kg</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>farmer_name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>date_of_purchase</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>total_cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>e,mandya</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-08-07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
